--- a/results/ROI_greedy/dataset_02/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_02/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,64 +579,64 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Q2">
-        <v>1.913649286837092</v>
+        <v>1.658228076603532</v>
       </c>
       <c r="R2">
-        <v>34.77715641846618</v>
+        <v>62.20252616151522</v>
       </c>
       <c r="S2">
-        <v>6.777777777777778</v>
+        <v>5.25</v>
       </c>
       <c r="T2">
-        <v>6.777777777777778</v>
+        <v>5.25</v>
       </c>
       <c r="U2">
-        <v>1.913649286837092</v>
+        <v>1.658228076603532</v>
       </c>
       <c r="V2">
-        <v>34.77715641846618</v>
+        <v>62.20252616151522</v>
       </c>
       <c r="W2">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="X2">
         <v>370</v>
       </c>
       <c r="Y2">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -659,67 +659,67 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>313</v>
+        <v>1482</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="I3">
-        <v>307</v>
+        <v>1399</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
-        <v>399</v>
+        <v>1399</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
-        <v>0.7694235588972431</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>409</v>
+        <v>1482</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="Q3">
-        <v>3.711130063048756</v>
+        <v>2.882307198059435</v>
       </c>
       <c r="R3">
-        <v>361.8886993695124</v>
+        <v>1159.768502561067</v>
       </c>
       <c r="S3">
-        <v>40.9</v>
+        <v>17.85542168674699</v>
       </c>
       <c r="T3">
-        <v>52.16666666666666</v>
+        <v>17.85542168674699</v>
       </c>
       <c r="U3">
-        <v>3.954443721312098</v>
+        <v>2.882307198059435</v>
       </c>
       <c r="V3">
-        <v>283.2733376721274</v>
+        <v>1159.768502561067</v>
       </c>
       <c r="W3">
-        <v>1628</v>
+        <v>536</v>
       </c>
       <c r="X3">
         <v>1935</v>
       </c>
       <c r="Y3">
-        <v>1536</v>
+        <v>536</v>
       </c>
       <c r="Z3">
-        <v>1.059895833333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,67 +739,67 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>281</v>
+        <v>916</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I4">
-        <v>276</v>
+        <v>885</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>343</v>
+        <v>885</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N4">
-        <v>0.8046647230320699</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>353</v>
+        <v>916</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q4">
-        <v>3.563882963939251</v>
+        <v>3.386029160188984</v>
       </c>
       <c r="R4">
-        <v>307.3611703606075</v>
+        <v>780.0330960341415</v>
       </c>
       <c r="S4">
-        <v>35.3</v>
+        <v>29.54838709677419</v>
       </c>
       <c r="T4">
-        <v>56.2</v>
+        <v>29.54838709677419</v>
       </c>
       <c r="U4">
-        <v>4.028916756899646</v>
+        <v>3.386029160188984</v>
       </c>
       <c r="V4">
-        <v>255.8554162155018</v>
+        <v>780.0330960341415</v>
       </c>
       <c r="W4">
-        <v>1067</v>
+        <v>458</v>
       </c>
       <c r="X4">
         <v>1343</v>
       </c>
       <c r="Y4">
-        <v>1000</v>
+        <v>458</v>
       </c>
       <c r="Z4">
-        <v>1.067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I5">
-        <v>110</v>
+        <v>372</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K5">
-        <v>166</v>
+        <v>372</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N5">
-        <v>0.6626506024096386</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>182</v>
+        <v>410</v>
       </c>
       <c r="P5">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="Q5">
-        <v>2.431417964837014</v>
+        <v>2.378570999971968</v>
       </c>
       <c r="R5">
-        <v>127.0973125626078</v>
+        <v>281.6143020010652</v>
       </c>
       <c r="S5">
-        <v>11.375</v>
+        <v>10.78947368421053</v>
       </c>
       <c r="T5">
-        <v>16.71428571428572</v>
+        <v>10.78947368421053</v>
       </c>
       <c r="U5">
-        <v>2.816263785742443</v>
+        <v>2.378570999971968</v>
       </c>
       <c r="V5">
-        <v>90.28615349980291</v>
+        <v>281.6143020010652</v>
       </c>
       <c r="W5">
-        <v>558</v>
+        <v>296</v>
       </c>
       <c r="X5">
         <v>668</v>
       </c>
       <c r="Y5">
-        <v>502</v>
+        <v>296</v>
       </c>
       <c r="Z5">
-        <v>1.111553784860558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,64 +899,64 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I6">
-        <v>146</v>
+        <v>388</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
-        <v>146</v>
+        <v>388</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="Q6">
-        <v>3.905334017277349</v>
+        <v>2.304907974410185</v>
       </c>
       <c r="R6">
-        <v>134.283997948168</v>
+        <v>288.888957100362</v>
       </c>
       <c r="S6">
-        <v>49.66666666666666</v>
+        <v>10.02325581395349</v>
       </c>
       <c r="T6">
-        <v>49.66666666666666</v>
+        <v>10.02325581395349</v>
       </c>
       <c r="U6">
-        <v>3.905334017277349</v>
+        <v>2.304907974410185</v>
       </c>
       <c r="V6">
-        <v>134.283997948168</v>
+        <v>288.888957100362</v>
       </c>
       <c r="W6">
-        <v>716</v>
+        <v>474</v>
       </c>
       <c r="X6">
         <v>862</v>
       </c>
       <c r="Y6">
-        <v>716</v>
+        <v>474</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -979,64 +979,64 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>354</v>
+        <v>604</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>339</v>
+        <v>564</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>339</v>
+        <v>564</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>354</v>
+        <v>604</v>
       </c>
       <c r="P7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q7">
-        <v>3.161246712031565</v>
+        <v>2.714694743820879</v>
       </c>
       <c r="R7">
-        <v>291.5812993195265</v>
+        <v>455.4122102471649</v>
       </c>
       <c r="S7">
-        <v>23.6</v>
+        <v>15.1</v>
       </c>
       <c r="T7">
-        <v>23.6</v>
+        <v>15.1</v>
       </c>
       <c r="U7">
-        <v>3.161246712031565</v>
+        <v>2.714694743820879</v>
       </c>
       <c r="V7">
-        <v>291.5812993195265</v>
+        <v>455.4122102471649</v>
       </c>
       <c r="W7">
-        <v>811</v>
+        <v>586</v>
       </c>
       <c r="X7">
         <v>1150</v>
       </c>
       <c r="Y7">
-        <v>811</v>
+        <v>586</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1059,64 +1059,64 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>354</v>
+        <v>807</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>344</v>
+        <v>764</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K8">
-        <v>344</v>
+        <v>764</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>354</v>
+        <v>807</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="Q8">
-        <v>3.566711820139729</v>
+        <v>2.932123552576386</v>
       </c>
       <c r="R8">
-        <v>308.3328817986027</v>
+        <v>637.9186872392154</v>
       </c>
       <c r="S8">
-        <v>35.4</v>
+        <v>18.76744186046512</v>
       </c>
       <c r="T8">
-        <v>35.4</v>
+        <v>18.76744186046512</v>
       </c>
       <c r="U8">
-        <v>3.566711820139729</v>
+        <v>2.932123552576386</v>
       </c>
       <c r="V8">
-        <v>308.3328817986027</v>
+        <v>637.9186872392154</v>
       </c>
       <c r="W8">
-        <v>606</v>
+        <v>186</v>
       </c>
       <c r="X8">
         <v>950</v>
       </c>
       <c r="Y8">
-        <v>606</v>
+        <v>186</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1139,64 +1139,64 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>531</v>
+        <v>1309</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I9">
-        <v>521</v>
+        <v>1259</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K9">
-        <v>521</v>
+        <v>1259</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>531</v>
+        <v>1309</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q9">
-        <v>3.972176928247893</v>
+        <v>3.264995760481754</v>
       </c>
       <c r="R9">
-        <v>481.2782307175211</v>
+        <v>1095.750211975912</v>
       </c>
       <c r="S9">
-        <v>53.1</v>
+        <v>26.18</v>
       </c>
       <c r="T9">
-        <v>53.1</v>
+        <v>26.18</v>
       </c>
       <c r="U9">
-        <v>3.972176928247893</v>
+        <v>3.264995760481754</v>
       </c>
       <c r="V9">
-        <v>481.2782307175211</v>
+        <v>1095.750211975912</v>
       </c>
       <c r="W9">
-        <v>1602</v>
+        <v>864</v>
       </c>
       <c r="X9">
         <v>2123</v>
       </c>
       <c r="Y9">
-        <v>1602</v>
+        <v>864</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1219,64 +1219,64 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>383</v>
+        <v>725</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I10">
-        <v>373</v>
+        <v>670</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K10">
-        <v>373</v>
+        <v>670</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>383</v>
+        <v>725</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="Q10">
-        <v>3.6454498961866</v>
+        <v>2.578838469622204</v>
       </c>
       <c r="R10">
-        <v>336.545501038134</v>
+        <v>528.1638841707788</v>
       </c>
       <c r="S10">
-        <v>38.3</v>
+        <v>13.18181818181818</v>
       </c>
       <c r="T10">
-        <v>38.3</v>
+        <v>13.18181818181818</v>
       </c>
       <c r="U10">
-        <v>3.6454498961866</v>
+        <v>2.578838469622204</v>
       </c>
       <c r="V10">
-        <v>336.545501038134</v>
+        <v>528.1638841707788</v>
       </c>
       <c r="W10">
-        <v>910</v>
+        <v>613</v>
       </c>
       <c r="X10">
         <v>1283</v>
       </c>
       <c r="Y10">
-        <v>910</v>
+        <v>613</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1299,67 +1299,67 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>147</v>
+        <v>1089</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="I11">
-        <v>142</v>
+        <v>1024</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K11">
-        <v>318</v>
+        <v>1024</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
-        <v>0.4465408805031447</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>343</v>
+        <v>1089</v>
       </c>
       <c r="P11">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="Q11">
-        <v>2.618854622297739</v>
+        <v>2.818627853037323</v>
       </c>
       <c r="R11">
-        <v>252.5286344425565</v>
+        <v>840.789189552574</v>
       </c>
       <c r="S11">
-        <v>13.72</v>
+        <v>16.75384615384615</v>
       </c>
       <c r="T11">
-        <v>29.4</v>
+        <v>16.75384615384615</v>
       </c>
       <c r="U11">
-        <v>3.380994674344636</v>
+        <v>2.818627853037323</v>
       </c>
       <c r="V11">
-        <v>125.0950266282768</v>
+        <v>840.789189552574</v>
       </c>
       <c r="W11">
-        <v>1252</v>
+        <v>370</v>
       </c>
       <c r="X11">
         <v>1394</v>
       </c>
       <c r="Y11">
-        <v>1076</v>
+        <v>370</v>
       </c>
       <c r="Z11">
-        <v>1.163568773234201</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
